--- a/1toolConverter_local/tablas_extraidas.xlsx
+++ b/1toolConverter_local/tablas_extraidas.xlsx
@@ -624,8 +624,12 @@
       <c r="J2" t="n">
         <v>0</v>
       </c>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>-270</v>
+      </c>
+      <c r="L2" t="n">
+        <v>270</v>
+      </c>
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="n">
         <v>0</v>
@@ -724,8 +728,12 @@
       <c r="J3" t="n">
         <v>0</v>
       </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>-270</v>
+      </c>
+      <c r="L3" t="n">
+        <v>270</v>
+      </c>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="n">
         <v>0</v>
@@ -824,8 +832,12 @@
       <c r="J4" t="n">
         <v>0</v>
       </c>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>-270</v>
+      </c>
+      <c r="L4" t="n">
+        <v>270</v>
+      </c>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="n">
         <v>0</v>
@@ -924,8 +936,12 @@
       <c r="J5" t="n">
         <v>0</v>
       </c>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>-270</v>
+      </c>
+      <c r="L5" t="n">
+        <v>270</v>
+      </c>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="n">
         <v>0</v>
@@ -1024,8 +1040,12 @@
       <c r="J6" t="n">
         <v>0</v>
       </c>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>-270</v>
+      </c>
+      <c r="L6" t="n">
+        <v>270</v>
+      </c>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="n">
         <v>0</v>
@@ -1124,8 +1144,12 @@
       <c r="J7" t="n">
         <v>0</v>
       </c>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>-270</v>
+      </c>
+      <c r="L7" t="n">
+        <v>270</v>
+      </c>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="n">
         <v>0</v>
@@ -1224,8 +1248,12 @@
       <c r="J8" t="n">
         <v>0</v>
       </c>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>-270</v>
+      </c>
+      <c r="L8" t="n">
+        <v>270</v>
+      </c>
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="n">
         <v>0</v>
@@ -1322,10 +1350,14 @@
         <v>3</v>
       </c>
       <c r="J9" t="n">
-        <v>10</v>
-      </c>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
+        <v>16</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>9999</v>
+      </c>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="n">
         <v>0</v>
@@ -1422,10 +1454,14 @@
         <v>3</v>
       </c>
       <c r="J10" t="n">
-        <v>10</v>
-      </c>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+        <v>16</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>9999</v>
+      </c>
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="n">
         <v>0</v>
@@ -1524,8 +1560,12 @@
       <c r="J11" t="n">
         <v>0</v>
       </c>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="n">
         <v>0</v>
@@ -1624,8 +1664,12 @@
       <c r="J12" t="n">
         <v>0</v>
       </c>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="n">
         <v>0</v>
@@ -1724,8 +1768,12 @@
       <c r="J13" t="n">
         <v>0</v>
       </c>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="n">
         <v>0</v>
@@ -1824,8 +1872,12 @@
       <c r="J14" t="n">
         <v>0</v>
       </c>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="n">
         <v>0</v>
@@ -1924,8 +1976,12 @@
       <c r="J15" t="n">
         <v>0</v>
       </c>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="n">
         <v>0</v>
@@ -2024,8 +2080,12 @@
       <c r="J16" t="n">
         <v>0</v>
       </c>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="n">
         <v>0</v>
@@ -2124,8 +2184,12 @@
       <c r="J17" t="n">
         <v>0</v>
       </c>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
       <c r="M17" t="inlineStr"/>
       <c r="N17" t="n">
         <v>0</v>
@@ -2224,8 +2288,12 @@
       <c r="J18" t="n">
         <v>0</v>
       </c>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="n">
         <v>0</v>
@@ -2324,8 +2392,12 @@
       <c r="J19" t="n">
         <v>0</v>
       </c>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="n">
         <v>0</v>
@@ -2424,8 +2496,12 @@
       <c r="J20" t="n">
         <v>0</v>
       </c>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
       <c r="M20" t="inlineStr"/>
       <c r="N20" t="n">
         <v>0</v>
@@ -2524,8 +2600,12 @@
       <c r="J21" t="n">
         <v>0</v>
       </c>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
       <c r="M21" t="inlineStr"/>
       <c r="N21" t="n">
         <v>0</v>
@@ -2624,8 +2704,12 @@
       <c r="J22" t="n">
         <v>0</v>
       </c>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
       <c r="M22" t="inlineStr"/>
       <c r="N22" t="n">
         <v>0</v>
@@ -2724,8 +2808,12 @@
       <c r="J23" t="n">
         <v>0</v>
       </c>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
       <c r="M23" t="inlineStr"/>
       <c r="N23" t="n">
         <v>0</v>
@@ -2824,8 +2912,12 @@
       <c r="J24" t="n">
         <v>0</v>
       </c>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
       <c r="M24" t="inlineStr"/>
       <c r="N24" t="n">
         <v>0</v>
@@ -2924,8 +3016,12 @@
       <c r="J25" t="n">
         <v>0</v>
       </c>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
       <c r="M25" t="inlineStr"/>
       <c r="N25" t="n">
         <v>0</v>
@@ -3024,8 +3120,12 @@
       <c r="J26" t="n">
         <v>6</v>
       </c>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
       <c r="M26" t="inlineStr"/>
       <c r="N26" t="n">
         <v>0</v>
@@ -3124,8 +3224,12 @@
       <c r="J27" t="n">
         <v>6</v>
       </c>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="n">
         <v>0</v>
@@ -3224,8 +3328,12 @@
       <c r="J28" t="n">
         <v>6</v>
       </c>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="n">
         <v>0</v>
@@ -3324,8 +3432,12 @@
       <c r="J29" t="n">
         <v>0</v>
       </c>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
       <c r="M29" t="inlineStr"/>
       <c r="N29" t="n">
         <v>0</v>
@@ -3424,8 +3536,12 @@
       <c r="J30" t="n">
         <v>6</v>
       </c>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="n">
         <v>0</v>
@@ -3524,8 +3640,12 @@
       <c r="J31" t="n">
         <v>6</v>
       </c>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
       <c r="M31" t="inlineStr"/>
       <c r="N31" t="n">
         <v>0</v>
@@ -3624,8 +3744,12 @@
       <c r="J32" t="n">
         <v>6</v>
       </c>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="n">
         <v>0</v>
@@ -3724,8 +3848,12 @@
       <c r="J33" t="n">
         <v>0</v>
       </c>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
       <c r="M33" t="inlineStr"/>
       <c r="N33" t="n">
         <v>0</v>
@@ -3824,8 +3952,12 @@
       <c r="J34" t="n">
         <v>0</v>
       </c>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="n">
         <v>0</v>
@@ -3924,8 +4056,12 @@
       <c r="J35" t="n">
         <v>0</v>
       </c>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="n">
         <v>0</v>
@@ -4024,8 +4160,12 @@
       <c r="J36" t="n">
         <v>0</v>
       </c>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="n">
         <v>0</v>
@@ -4124,8 +4264,12 @@
       <c r="J37" t="n">
         <v>0</v>
       </c>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="n">
         <v>0</v>
@@ -4224,8 +4368,12 @@
       <c r="J38" t="n">
         <v>0</v>
       </c>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="n">
         <v>0</v>
@@ -4324,8 +4472,12 @@
       <c r="J39" t="n">
         <v>0</v>
       </c>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="n">
         <v>0</v>
@@ -4396,8 +4548,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Condenser high temperature
-alarm</t>
+          <t>Condenser high temperature alarm</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -4425,8 +4576,12 @@
       <c r="J40" t="n">
         <v>0</v>
       </c>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
       <c r="M40" t="inlineStr"/>
       <c r="N40" t="n">
         <v>0</v>
@@ -4497,8 +4652,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Condenser low temperature
-alarm</t>
+          <t>Condenser low temperature alarm</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -4526,8 +4680,12 @@
       <c r="J41" t="n">
         <v>0</v>
       </c>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
       <c r="M41" t="inlineStr"/>
       <c r="N41" t="n">
         <v>0</v>
@@ -4626,8 +4784,12 @@
       <c r="J42" t="n">
         <v>0</v>
       </c>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
       <c r="M42" t="inlineStr"/>
       <c r="N42" t="n">
         <v>0</v>
@@ -4726,8 +4888,12 @@
       <c r="J43" t="n">
         <v>0</v>
       </c>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
       <c r="M43" t="inlineStr"/>
       <c r="N43" t="n">
         <v>0</v>
@@ -4826,8 +4992,12 @@
       <c r="J44" t="n">
         <v>0</v>
       </c>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
       <c r="M44" t="inlineStr"/>
       <c r="N44" t="n">
         <v>0</v>
@@ -4926,8 +5096,12 @@
       <c r="J45" t="n">
         <v>0</v>
       </c>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
       <c r="M45" t="inlineStr"/>
       <c r="N45" t="n">
         <v>0</v>
@@ -5026,8 +5200,12 @@
       <c r="J46" t="n">
         <v>0</v>
       </c>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
       <c r="M46" t="inlineStr"/>
       <c r="N46" t="n">
         <v>0</v>
@@ -5098,8 +5276,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Real time clock configuration
-error</t>
+          <t>Real time clock configuration error</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -5127,8 +5304,12 @@
       <c r="J47" t="n">
         <v>0</v>
       </c>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>0</v>
+      </c>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
       <c r="M47" t="inlineStr"/>
       <c r="N47" t="n">
         <v>0</v>
@@ -5227,8 +5408,12 @@
       <c r="J48" t="n">
         <v>0</v>
       </c>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>0</v>
+      </c>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
       <c r="M48" t="inlineStr"/>
       <c r="N48" t="n">
         <v>0</v>
@@ -5327,8 +5512,12 @@
       <c r="J49" t="n">
         <v>0</v>
       </c>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>0</v>
+      </c>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
       <c r="M49" t="inlineStr"/>
       <c r="N49" t="n">
         <v>0</v>
@@ -5399,8 +5588,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Compressor 1: comunication
-alarm</t>
+          <t>Compressor 1: comunication alarm</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -5428,8 +5616,12 @@
       <c r="J50" t="n">
         <v>0</v>
       </c>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>0</v>
+      </c>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
       <c r="M50" t="inlineStr"/>
       <c r="N50" t="n">
         <v>0</v>
@@ -5500,8 +5692,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Compressor 2: comunication
-alarm</t>
+          <t>Compressor 2: comunication alarm</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -5529,8 +5720,12 @@
       <c r="J51" t="n">
         <v>0</v>
       </c>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>0</v>
+      </c>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
       <c r="M51" t="inlineStr"/>
       <c r="N51" t="n">
         <v>0</v>
@@ -5629,8 +5824,12 @@
       <c r="J52" t="n">
         <v>6</v>
       </c>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>0</v>
+      </c>
+      <c r="L52" t="n">
+        <v>9999</v>
+      </c>
       <c r="M52" t="inlineStr"/>
       <c r="N52" t="n">
         <v>0</v>
@@ -5729,8 +5928,12 @@
       <c r="J53" t="n">
         <v>6</v>
       </c>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>0</v>
+      </c>
+      <c r="L53" t="n">
+        <v>9999</v>
+      </c>
       <c r="M53" t="inlineStr"/>
       <c r="N53" t="n">
         <v>0</v>
@@ -5829,8 +6032,12 @@
       <c r="J54" t="n">
         <v>6</v>
       </c>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>0</v>
+      </c>
+      <c r="L54" t="n">
+        <v>9999</v>
+      </c>
       <c r="M54" t="inlineStr"/>
       <c r="N54" t="n">
         <v>0</v>
@@ -5929,8 +6136,12 @@
       <c r="J55" t="n">
         <v>6</v>
       </c>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>0</v>
+      </c>
+      <c r="L55" t="n">
+        <v>9999</v>
+      </c>
       <c r="M55" t="inlineStr"/>
       <c r="N55" t="n">
         <v>0</v>
@@ -6029,8 +6240,12 @@
       <c r="J56" t="n">
         <v>6</v>
       </c>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>0</v>
+      </c>
+      <c r="L56" t="n">
+        <v>9999</v>
+      </c>
       <c r="M56" t="inlineStr"/>
       <c r="N56" t="n">
         <v>0</v>
@@ -6129,8 +6344,12 @@
       <c r="J57" t="n">
         <v>6</v>
       </c>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>0</v>
+      </c>
+      <c r="L57" t="n">
+        <v>9999</v>
+      </c>
       <c r="M57" t="inlineStr"/>
       <c r="N57" t="n">
         <v>0</v>
@@ -6229,8 +6448,12 @@
       <c r="J58" t="n">
         <v>6</v>
       </c>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>0</v>
+      </c>
+      <c r="L58" t="n">
+        <v>9999</v>
+      </c>
       <c r="M58" t="inlineStr"/>
       <c r="N58" t="n">
         <v>0</v>
@@ -6329,8 +6552,12 @@
       <c r="J59" t="n">
         <v>6</v>
       </c>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>0</v>
+      </c>
+      <c r="L59" t="n">
+        <v>9999</v>
+      </c>
       <c r="M59" t="inlineStr"/>
       <c r="N59" t="n">
         <v>0</v>
@@ -6429,8 +6656,12 @@
       <c r="J60" t="n">
         <v>6</v>
       </c>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>0</v>
+      </c>
+      <c r="L60" t="n">
+        <v>9999</v>
+      </c>
       <c r="M60" t="inlineStr"/>
       <c r="N60" t="n">
         <v>0</v>
@@ -6529,8 +6760,12 @@
       <c r="J61" t="n">
         <v>6</v>
       </c>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>0</v>
+      </c>
+      <c r="L61" t="n">
+        <v>9999</v>
+      </c>
       <c r="M61" t="inlineStr"/>
       <c r="N61" t="n">
         <v>0</v>
@@ -6629,8 +6864,12 @@
       <c r="J62" t="n">
         <v>6</v>
       </c>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>0</v>
+      </c>
+      <c r="L62" t="n">
+        <v>9999</v>
+      </c>
       <c r="M62" t="inlineStr"/>
       <c r="N62" t="n">
         <v>0</v>
@@ -6729,8 +6968,12 @@
       <c r="J63" t="n">
         <v>6</v>
       </c>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>0</v>
+      </c>
+      <c r="L63" t="n">
+        <v>9999</v>
+      </c>
       <c r="M63" t="inlineStr"/>
       <c r="N63" t="n">
         <v>0</v>
@@ -6829,8 +7072,12 @@
       <c r="J64" t="n">
         <v>6</v>
       </c>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>0</v>
+      </c>
+      <c r="L64" t="n">
+        <v>9999</v>
+      </c>
       <c r="M64" t="inlineStr"/>
       <c r="N64" t="n">
         <v>0</v>
@@ -6929,8 +7176,12 @@
       <c r="J65" t="n">
         <v>6</v>
       </c>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>0</v>
+      </c>
+      <c r="L65" t="n">
+        <v>9999</v>
+      </c>
       <c r="M65" t="inlineStr"/>
       <c r="N65" t="n">
         <v>0</v>
@@ -7031,10 +7282,14 @@
         <v>3</v>
       </c>
       <c r="J66" t="n">
-        <v>10</v>
-      </c>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+        <v>16</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0</v>
+      </c>
+      <c r="L66" t="n">
+        <v>100</v>
+      </c>
       <c r="M66" t="inlineStr"/>
       <c r="N66" t="n">
         <v>0</v>
@@ -7135,10 +7390,14 @@
         <v>3</v>
       </c>
       <c r="J67" t="n">
-        <v>10</v>
-      </c>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+        <v>16</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0</v>
+      </c>
+      <c r="L67" t="n">
+        <v>100</v>
+      </c>
       <c r="M67" t="inlineStr"/>
       <c r="N67" t="n">
         <v>0</v>
@@ -7239,10 +7498,14 @@
         <v>3</v>
       </c>
       <c r="J68" t="n">
-        <v>10</v>
-      </c>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+        <v>16</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0</v>
+      </c>
+      <c r="L68" t="n">
+        <v>100</v>
+      </c>
       <c r="M68" t="inlineStr"/>
       <c r="N68" t="n">
         <v>0</v>
@@ -7343,7 +7606,7 @@
         <v>3</v>
       </c>
       <c r="J69" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -7459,7 +7722,7 @@
         <v>3</v>
       </c>
       <c r="J70" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -7575,7 +7838,7 @@
         <v>3</v>
       </c>
       <c r="J71" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -7691,7 +7954,7 @@
         <v>3</v>
       </c>
       <c r="J72" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -7782,7 +8045,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Anti-short cycle delay (2nd compressor)</t>
+          <t>Anti-short cycle delay 2nd compressor</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -7807,7 +8070,7 @@
         <v>3</v>
       </c>
       <c r="J73" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -7898,7 +8161,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Activation mode for 2nd compressor: HAF=step logic; FUL=dela</t>
+          <t>Activation mode for 2nd compressor: HAFstep logic; FULdela</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -7923,10 +8186,14 @@
         <v>3</v>
       </c>
       <c r="J74" t="n">
-        <v>10</v>
-      </c>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
+        <v>16</v>
+      </c>
+      <c r="K74" t="n">
+        <v>0</v>
+      </c>
+      <c r="L74" t="n">
+        <v>100</v>
+      </c>
       <c r="M74" t="inlineStr"/>
       <c r="N74" t="n">
         <v>0</v>
@@ -8027,10 +8294,14 @@
         <v>3</v>
       </c>
       <c r="J75" t="n">
-        <v>10</v>
-      </c>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
+        <v>16</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0</v>
+      </c>
+      <c r="L75" t="n">
+        <v>100</v>
+      </c>
       <c r="M75" t="inlineStr"/>
       <c r="N75" t="n">
         <v>0</v>
@@ -8106,7 +8377,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Maximum time with compressor on (0=disabled)</t>
+          <t>Maximum time with compressor on 0disabled</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -8131,7 +8402,7 @@
         <v>3</v>
       </c>
       <c r="J76" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -8247,10 +8518,14 @@
         <v>3</v>
       </c>
       <c r="J77" t="n">
-        <v>10</v>
-      </c>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+        <v>16</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0</v>
+      </c>
+      <c r="L77" t="n">
+        <v>100</v>
+      </c>
       <c r="M77" t="inlineStr"/>
       <c r="N77" t="n">
         <v>0</v>
@@ -8326,7 +8601,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Regulation percentage=F(P1; P2) (100=P1; 0=P2)</t>
+          <t>Regulation percentageFP1; P2 100P1; 0P2</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -8351,7 +8626,7 @@
         <v>3</v>
       </c>
       <c r="J78" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -8463,7 +8738,7 @@
         <v>3</v>
       </c>
       <c r="J79" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -8554,7 +8829,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Pull Down phase differential (SET+CCS or SET+HES+CCS)</t>
+          <t>Pull Down phase differential SETCCS or SETHESCCS</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -8579,7 +8854,7 @@
         <v>3</v>
       </c>
       <c r="J80" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -8695,7 +8970,7 @@
         <v>3</v>
       </c>
       <c r="J81" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -8811,7 +9086,7 @@
         <v>3</v>
       </c>
       <c r="J82" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -8927,7 +9202,7 @@
         <v>3</v>
       </c>
       <c r="J83" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -9018,7 +9293,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Inverter drive speed during ton (in percentage)</t>
+          <t>Inverter drive speed during ton in percentage</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -9043,7 +9318,7 @@
         <v>3</v>
       </c>
       <c r="J84" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -9134,7 +9409,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Delay before activation of the second compressor (when T&gt; SE</t>
+          <t>Delay before activation of the second compressor when T SE</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -9159,7 +9434,7 @@
         <v>3</v>
       </c>
       <c r="J85" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -9275,7 +9550,7 @@
         <v>3</v>
       </c>
       <c r="J86" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -9391,7 +9666,7 @@
         <v>3</v>
       </c>
       <c r="J87" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -9507,7 +9782,7 @@
         <v>3</v>
       </c>
       <c r="J88" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -9623,10 +9898,14 @@
         <v>3</v>
       </c>
       <c r="J89" t="n">
-        <v>10</v>
-      </c>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+        <v>16</v>
+      </c>
+      <c r="K89" t="n">
+        <v>0</v>
+      </c>
+      <c r="L89" t="n">
+        <v>100</v>
+      </c>
       <c r="M89" t="inlineStr"/>
       <c r="N89" t="n">
         <v>0</v>
@@ -9727,7 +10006,7 @@
         <v>3</v>
       </c>
       <c r="J90" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -9843,10 +10122,14 @@
         <v>3</v>
       </c>
       <c r="J91" t="n">
-        <v>10</v>
-      </c>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+        <v>16</v>
+      </c>
+      <c r="K91" t="n">
+        <v>0</v>
+      </c>
+      <c r="L91" t="n">
+        <v>100</v>
+      </c>
       <c r="M91" t="inlineStr"/>
       <c r="N91" t="n">
         <v>0</v>
@@ -9947,7 +10230,7 @@
         <v>3</v>
       </c>
       <c r="J92" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -10063,10 +10346,14 @@
         <v>3</v>
       </c>
       <c r="J93" t="n">
-        <v>10</v>
-      </c>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+        <v>16</v>
+      </c>
+      <c r="K93" t="n">
+        <v>0</v>
+      </c>
+      <c r="L93" t="n">
+        <v>100</v>
+      </c>
       <c r="M93" t="inlineStr"/>
       <c r="N93" t="n">
         <v>0</v>
@@ -10167,7 +10454,7 @@
         <v>3</v>
       </c>
       <c r="J94" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -10283,10 +10570,14 @@
         <v>3</v>
       </c>
       <c r="J95" t="n">
-        <v>10</v>
-      </c>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+        <v>16</v>
+      </c>
+      <c r="K95" t="n">
+        <v>0</v>
+      </c>
+      <c r="L95" t="n">
+        <v>100</v>
+      </c>
       <c r="M95" t="inlineStr"/>
       <c r="N95" t="n">
         <v>0</v>
@@ -10387,7 +10678,7 @@
         <v>3</v>
       </c>
       <c r="J96" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -10503,7 +10794,7 @@
         <v>3</v>
       </c>
       <c r="J97" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -10594,7 +10885,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Proportional band for inverter compressor when T&gt;SEt</t>
+          <t>Proportional band for inverter compressor when TSEt</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -10619,7 +10910,7 @@
         <v>3</v>
       </c>
       <c r="J98" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
@@ -10710,7 +11001,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Proportional band for inverter compressor when T&lt;SEt</t>
+          <t>Proportional band for inverter compressor when TSEt</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -10735,7 +11026,7 @@
         <v>3</v>
       </c>
       <c r="J99" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -10826,7 +11117,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Minimum value for Variable Speed Compressor (RPM * 10)</t>
+          <t>Minimum value for Variable Speed Compressor RPM 10</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -10851,10 +11142,14 @@
         <v>3</v>
       </c>
       <c r="J100" t="n">
-        <v>10</v>
-      </c>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+        <v>16</v>
+      </c>
+      <c r="K100" t="n">
+        <v>0</v>
+      </c>
+      <c r="L100" t="n">
+        <v>100</v>
+      </c>
       <c r="M100" t="inlineStr"/>
       <c r="N100" t="n">
         <v>0</v>
@@ -10930,7 +11225,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Maximum value for Variable Speed Compressor (RPM * 10)</t>
+          <t>Maximum value for Variable Speed Compressor RPM 10</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -10955,10 +11250,14 @@
         <v>3</v>
       </c>
       <c r="J101" t="n">
-        <v>10</v>
-      </c>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+        <v>16</v>
+      </c>
+      <c r="K101" t="n">
+        <v>0</v>
+      </c>
+      <c r="L101" t="n">
+        <v>100</v>
+      </c>
       <c r="M101" t="inlineStr"/>
       <c r="N101" t="n">
         <v>0</v>
@@ -11059,7 +11358,7 @@
         <v>3</v>
       </c>
       <c r="J102" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -11171,7 +11470,7 @@
         <v>3</v>
       </c>
       <c r="J103" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -11287,7 +11586,7 @@
         <v>3</v>
       </c>
       <c r="J104" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
@@ -11403,10 +11702,14 @@
         <v>3</v>
       </c>
       <c r="J105" t="n">
-        <v>10</v>
-      </c>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+        <v>16</v>
+      </c>
+      <c r="K105" t="n">
+        <v>0</v>
+      </c>
+      <c r="L105" t="n">
+        <v>100</v>
+      </c>
       <c r="M105" t="inlineStr"/>
       <c r="N105" t="n">
         <v>0</v>
@@ -11482,7 +11785,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Signal output variation for Variable Speed Compressor (SET-H</t>
+          <t>Signal output variation for Variable Speed Compressor SET-H</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -11507,7 +11810,7 @@
         <v>3</v>
       </c>
       <c r="J106" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
@@ -11594,7 +11897,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Signal output variation for Variable Speed Compressor (SET-H</t>
+          <t>Signal output variation for Variable Speed Compressor SET-H</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -11619,7 +11922,7 @@
         <v>3</v>
       </c>
       <c r="J107" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
@@ -11706,7 +12009,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Signal output variation for Variable Speed Compressor (T&lt;SET</t>
+          <t>Signal output variation for Variable Speed Compressor TSET</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -11731,7 +12034,7 @@
         <v>3</v>
       </c>
       <c r="J108" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
@@ -11818,7 +12121,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Variable Speed Compressor (in percentage) during any Pull Do</t>
+          <t>Variable Speed Compressor in percentage during any Pull Do</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -11843,7 +12146,7 @@
         <v>3</v>
       </c>
       <c r="J109" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
@@ -11934,7 +12237,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Compressor speed (in %) in case of any probe error during Co</t>
+          <t>Compressor speed in % in case of any probe error during Co</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -11959,7 +12262,7 @@
         <v>3</v>
       </c>
       <c r="J110" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
@@ -12050,7 +12353,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Compressor speed (in %) during any defrost cycle (valid if t</t>
+          <t>Compressor speed in % during any defrost cycle valid if t</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -12075,7 +12378,7 @@
         <v>3</v>
       </c>
       <c r="J111" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
@@ -12166,7 +12469,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Compressor speed during any pre-defrost phase (valid if tdf=</t>
+          <t>Compressor speed during any pre-defrost phase valid if tdf</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -12191,7 +12494,7 @@
         <v>3</v>
       </c>
       <c r="J112" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
@@ -12307,10 +12610,14 @@
         <v>3</v>
       </c>
       <c r="J113" t="n">
-        <v>10</v>
-      </c>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
+        <v>16</v>
+      </c>
+      <c r="K113" t="n">
+        <v>0</v>
+      </c>
+      <c r="L113" t="n">
+        <v>100</v>
+      </c>
       <c r="M113" t="inlineStr"/>
       <c r="N113" t="n">
         <v>0</v>
@@ -12411,10 +12718,14 @@
         <v>3</v>
       </c>
       <c r="J114" t="n">
-        <v>10</v>
-      </c>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
+        <v>16</v>
+      </c>
+      <c r="K114" t="n">
+        <v>0</v>
+      </c>
+      <c r="L114" t="n">
+        <v>100</v>
+      </c>
       <c r="M114" t="inlineStr"/>
       <c r="N114" t="n">
         <v>0</v>
@@ -12490,7 +12801,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>PI regulator: range for output value calculation (RPM * 10)</t>
+          <t>PI regulator: range for output value calculation RPM 10</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -12515,7 +12826,7 @@
         <v>3</v>
       </c>
       <c r="J115" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
@@ -12627,7 +12938,7 @@
         <v>3</v>
       </c>
       <c r="J116" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
@@ -12718,7 +13029,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>PI regulator: divisor for PI response time reduction (acts o</t>
+          <t>PI regulator: divisor for PI response time reduction acts o</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -12743,7 +13054,7 @@
         <v>3</v>
       </c>
       <c r="J117" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
@@ -12855,10 +13166,14 @@
         <v>3</v>
       </c>
       <c r="J118" t="n">
-        <v>10</v>
-      </c>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
+        <v>16</v>
+      </c>
+      <c r="K118" t="n">
+        <v>0</v>
+      </c>
+      <c r="L118" t="n">
+        <v>100</v>
+      </c>
       <c r="M118" t="inlineStr"/>
       <c r="N118" t="n">
         <v>0</v>
@@ -12959,10 +13274,14 @@
         <v>3</v>
       </c>
       <c r="J119" t="n">
-        <v>10</v>
-      </c>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
+        <v>16</v>
+      </c>
+      <c r="K119" t="n">
+        <v>0</v>
+      </c>
+      <c r="L119" t="n">
+        <v>100</v>
+      </c>
       <c r="M119" t="inlineStr"/>
       <c r="N119" t="n">
         <v>0</v>
@@ -13038,7 +13357,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Compressor speed threshold to activate lubrication (valid on</t>
+          <t>Compressor speed threshold to activate lubrication valid on</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -13063,7 +13382,7 @@
         <v>3</v>
       </c>
       <c r="J120" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
@@ -13175,7 +13494,7 @@
         <v>3</v>
       </c>
       <c r="J121" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
@@ -13291,7 +13610,7 @@
         <v>3</v>
       </c>
       <c r="J122" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="K122" t="inlineStr">
         <is>
@@ -13407,7 +13726,7 @@
         <v>3</v>
       </c>
       <c r="J123" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="K123" t="inlineStr">
         <is>
@@ -13519,7 +13838,7 @@
         <v>3</v>
       </c>
       <c r="J124" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="K124" t="inlineStr">
         <is>
@@ -13631,7 +13950,7 @@
         <v>3</v>
       </c>
       <c r="J125" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="K125" t="inlineStr">
         <is>
@@ -13743,10 +14062,14 @@
         <v>3</v>
       </c>
       <c r="J126" t="n">
-        <v>10</v>
-      </c>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
+        <v>16</v>
+      </c>
+      <c r="K126" t="n">
+        <v>0</v>
+      </c>
+      <c r="L126" t="n">
+        <v>100</v>
+      </c>
       <c r="M126" t="inlineStr"/>
       <c r="N126" t="n">
         <v>0</v>
@@ -13847,10 +14170,14 @@
         <v>3</v>
       </c>
       <c r="J127" t="n">
-        <v>10</v>
-      </c>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
+        <v>16</v>
+      </c>
+      <c r="K127" t="n">
+        <v>0</v>
+      </c>
+      <c r="L127" t="n">
+        <v>100</v>
+      </c>
       <c r="M127" t="inlineStr"/>
       <c r="N127" t="n">
         <v>0</v>
@@ -13951,10 +14278,14 @@
         <v>3</v>
       </c>
       <c r="J128" t="n">
-        <v>10</v>
-      </c>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
+        <v>16</v>
+      </c>
+      <c r="K128" t="n">
+        <v>0</v>
+      </c>
+      <c r="L128" t="n">
+        <v>100</v>
+      </c>
       <c r="M128" t="inlineStr"/>
       <c r="N128" t="n">
         <v>0</v>
@@ -14030,7 +14361,7 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Temperature display delay (resolution 10 sec)</t>
+          <t>Temperature display delay resolution 10 sec</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -14055,7 +14386,7 @@
         <v>3</v>
       </c>
       <c r="J129" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="K129" t="inlineStr">
         <is>
@@ -14146,8 +14477,7 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Probe visualization percentage=F(P1;P2) (ex: dtr=1 means
-VAL</t>
+          <t>Probe visualization percentageFP1;P2 ex: dtr1 means VAL</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -14172,7 +14502,7 @@
         <v>3</v>
       </c>
       <c r="J130" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="K130" t="inlineStr">
         <is>
@@ -14284,10 +14614,14 @@
         <v>3</v>
       </c>
       <c r="J131" t="n">
-        <v>10</v>
-      </c>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
+        <v>16</v>
+      </c>
+      <c r="K131" t="n">
+        <v>0</v>
+      </c>
+      <c r="L131" t="n">
+        <v>100</v>
+      </c>
       <c r="M131" t="inlineStr"/>
       <c r="N131" t="n">
         <v>0</v>
@@ -14388,10 +14722,14 @@
         <v>3</v>
       </c>
       <c r="J132" t="n">
-        <v>10</v>
-      </c>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
+        <v>16</v>
+      </c>
+      <c r="K132" t="n">
+        <v>0</v>
+      </c>
+      <c r="L132" t="n">
+        <v>100</v>
+      </c>
       <c r="M132" t="inlineStr"/>
       <c r="N132" t="n">
         <v>0</v>
@@ -14492,10 +14830,14 @@
         <v>3</v>
       </c>
       <c r="J133" t="n">
-        <v>10</v>
-      </c>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
+        <v>16</v>
+      </c>
+      <c r="K133" t="n">
+        <v>0</v>
+      </c>
+      <c r="L133" t="n">
+        <v>100</v>
+      </c>
       <c r="M133" t="inlineStr"/>
       <c r="N133" t="n">
         <v>0</v>
@@ -14596,10 +14938,14 @@
         <v>3</v>
       </c>
       <c r="J134" t="n">
-        <v>10</v>
-      </c>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
+        <v>16</v>
+      </c>
+      <c r="K134" t="n">
+        <v>0</v>
+      </c>
+      <c r="L134" t="n">
+        <v>100</v>
+      </c>
       <c r="M134" t="inlineStr"/>
       <c r="N134" t="n">
         <v>0</v>
@@ -14700,7 +15046,7 @@
         <v>3</v>
       </c>
       <c r="J135" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
@@ -14816,7 +15162,7 @@
         <v>3</v>
       </c>
       <c r="J136" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="K136" t="inlineStr">
         <is>
@@ -14932,7 +15278,7 @@
         <v>3</v>
       </c>
       <c r="J137" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="K137" t="inlineStr">
         <is>
@@ -15048,7 +15394,7 @@
         <v>3</v>
       </c>
       <c r="J138" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="K138" t="inlineStr">
         <is>
@@ -15164,7 +15510,7 @@
         <v>3</v>
       </c>
       <c r="J139" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="K139" t="inlineStr">
         <is>
@@ -15280,7 +15626,7 @@
         <v>3</v>
       </c>
       <c r="J140" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="K140" t="inlineStr">
         <is>
@@ -15396,7 +15742,7 @@
         <v>3</v>
       </c>
       <c r="J141" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="K141" t="inlineStr">
         <is>
@@ -15512,10 +15858,14 @@
         <v>3</v>
       </c>
       <c r="J142" t="n">
-        <v>10</v>
-      </c>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
+        <v>16</v>
+      </c>
+      <c r="K142" t="n">
+        <v>0</v>
+      </c>
+      <c r="L142" t="n">
+        <v>100</v>
+      </c>
       <c r="M142" t="inlineStr"/>
       <c r="N142" t="n">
         <v>0</v>
@@ -15616,7 +15966,7 @@
         <v>3</v>
       </c>
       <c r="J143" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="K143" t="inlineStr">
         <is>
@@ -15732,7 +16082,7 @@
         <v>3</v>
       </c>
       <c r="J144" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="K144" t="inlineStr">
         <is>
@@ -15823,7 +16173,7 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Drain heater enabled after draining time (par. Fdt)</t>
+          <t>Drain heater enabled after draining time par. Fdt</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -15848,7 +16198,7 @@
         <v>3</v>
       </c>
       <c r="J145" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="K145" t="inlineStr">
         <is>
@@ -15964,7 +16314,7 @@
         <v>3</v>
       </c>
       <c r="J146" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="K146" t="inlineStr">
         <is>
@@ -16080,10 +16430,14 @@
         <v>3</v>
       </c>
       <c r="J147" t="n">
-        <v>10</v>
-      </c>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
+        <v>16</v>
+      </c>
+      <c r="K147" t="n">
+        <v>0</v>
+      </c>
+      <c r="L147" t="n">
+        <v>100</v>
+      </c>
       <c r="M147" t="inlineStr"/>
       <c r="N147" t="n">
         <v>0</v>
@@ -16184,7 +16538,7 @@
         <v>3</v>
       </c>
       <c r="J148" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="K148" t="inlineStr">
         <is>
@@ -16300,10 +16654,14 @@
         <v>3</v>
       </c>
       <c r="J149" t="n">
-        <v>10</v>
-      </c>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
+        <v>16</v>
+      </c>
+      <c r="K149" t="n">
+        <v>0</v>
+      </c>
+      <c r="L149" t="n">
+        <v>100</v>
+      </c>
       <c r="M149" t="inlineStr"/>
       <c r="N149" t="n">
         <v>0</v>
@@ -16379,7 +16737,7 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Number of connected controllers for random refrost (Syd=rnd)</t>
+          <t>Number of connected controllers for random refrost Sydrnd</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
@@ -16404,7 +16762,7 @@
         <v>3</v>
       </c>
       <c r="J150" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="K150" t="inlineStr">
         <is>
@@ -16516,10 +16874,14 @@
         <v>3</v>
       </c>
       <c r="J151" t="n">
-        <v>10</v>
-      </c>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
+        <v>16</v>
+      </c>
+      <c r="K151" t="n">
+        <v>0</v>
+      </c>
+      <c r="L151" t="n">
+        <v>100</v>
+      </c>
       <c r="M151" t="inlineStr"/>
       <c r="N151" t="n">
         <v>0</v>
@@ -16620,7 +16982,7 @@
         <v>3</v>
       </c>
       <c r="J152" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="K152" t="inlineStr">
         <is>
@@ -16736,7 +17098,7 @@
         <v>3</v>
       </c>
       <c r="J153" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="K153" t="inlineStr">
         <is>
@@ -16852,10 +17214,14 @@
         <v>3</v>
       </c>
       <c r="J154" t="n">
-        <v>10</v>
-      </c>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
+        <v>16</v>
+      </c>
+      <c r="K154" t="n">
+        <v>0</v>
+      </c>
+      <c r="L154" t="n">
+        <v>100</v>
+      </c>
       <c r="M154" t="inlineStr"/>
       <c r="N154" t="n">
         <v>0</v>
@@ -16956,7 +17322,7 @@
         <v>3</v>
       </c>
       <c r="J155" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="K155" t="inlineStr">
         <is>
@@ -17072,7 +17438,7 @@
         <v>3</v>
       </c>
       <c r="J156" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="K156" t="inlineStr">
         <is>
@@ -17188,10 +17554,14 @@
         <v>3</v>
       </c>
       <c r="J157" t="n">
-        <v>10</v>
-      </c>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
+        <v>16</v>
+      </c>
+      <c r="K157" t="n">
+        <v>0</v>
+      </c>
+      <c r="L157" t="n">
+        <v>100</v>
+      </c>
       <c r="M157" t="inlineStr"/>
       <c r="N157" t="n">
         <v>0</v>
@@ -17267,7 +17637,7 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Evaporator fan ON time in normal mode (with compressor OFF)</t>
+          <t>Evaporator fan ON time in normal mode with compressor OFF</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
@@ -17292,7 +17662,7 @@
         <v>3</v>
       </c>
       <c r="J158" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="K158" t="inlineStr">
         <is>
@@ -17383,7 +17753,7 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Evaporator fan OFF time in normal mode (with compressor OFF)</t>
+          <t>Evaporator fan OFF time in normal mode with compressor OFF</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
@@ -17408,7 +17778,7 @@
         <v>3</v>
       </c>
       <c r="J159" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="K159" t="inlineStr">
         <is>
@@ -17499,7 +17869,7 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Maintenance interval for evaporator fans (tens of hours)</t>
+          <t>Maintenance interval for evaporator fans tens of hours</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
@@ -17524,7 +17894,7 @@
         <v>3</v>
       </c>
       <c r="J160" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="K160" t="inlineStr">
         <is>
@@ -17636,10 +18006,14 @@
         <v>3</v>
       </c>
       <c r="J161" t="n">
-        <v>10</v>
-      </c>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
+        <v>16</v>
+      </c>
+      <c r="K161" t="n">
+        <v>0</v>
+      </c>
+      <c r="L161" t="n">
+        <v>100</v>
+      </c>
       <c r="M161" t="inlineStr"/>
       <c r="N161" t="n">
         <v>0</v>
@@ -17740,10 +18114,14 @@
         <v>3</v>
       </c>
       <c r="J162" t="n">
-        <v>10</v>
-      </c>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
+        <v>16</v>
+      </c>
+      <c r="K162" t="n">
+        <v>0</v>
+      </c>
+      <c r="L162" t="n">
+        <v>100</v>
+      </c>
       <c r="M162" t="inlineStr"/>
       <c r="N162" t="n">
         <v>0</v>
@@ -17819,7 +18197,7 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Set Point 2 Regulation (for condenser fan)</t>
+          <t>Set Point 2 Regulation for condenser fan</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
@@ -17844,7 +18222,7 @@
         <v>3</v>
       </c>
       <c r="J163" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="K163" t="inlineStr">
         <is>
@@ -17935,7 +18313,7 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Set Point 2 differential (for condenser fan)</t>
+          <t>Set Point 2 differential for condenser fan</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
@@ -17960,7 +18338,7 @@
         <v>3</v>
       </c>
       <c r="J164" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="K164" t="inlineStr">
         <is>
@@ -18076,10 +18454,14 @@
         <v>3</v>
       </c>
       <c r="J165" t="n">
-        <v>10</v>
-      </c>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
+        <v>16</v>
+      </c>
+      <c r="K165" t="n">
+        <v>0</v>
+      </c>
+      <c r="L165" t="n">
+        <v>100</v>
+      </c>
       <c r="M165" t="inlineStr"/>
       <c r="N165" t="n">
         <v>0</v>
@@ -18180,7 +18562,7 @@
         <v>3</v>
       </c>
       <c r="J166" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="K166" t="inlineStr">
         <is>
@@ -18271,7 +18653,7 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Condenser fan working hours (x100) for maintenance alarm</t>
+          <t>Condenser fan working hours x100 for maintenance alarm</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
@@ -18296,7 +18678,7 @@
         <v>3</v>
       </c>
       <c r="J167" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="K167" t="inlineStr">
         <is>
@@ -18408,10 +18790,14 @@
         <v>3</v>
       </c>
       <c r="J168" t="n">
-        <v>10</v>
-      </c>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
+        <v>16</v>
+      </c>
+      <c r="K168" t="n">
+        <v>0</v>
+      </c>
+      <c r="L168" t="n">
+        <v>100</v>
+      </c>
       <c r="M168" t="inlineStr"/>
       <c r="N168" t="n">
         <v>0</v>
@@ -18487,7 +18873,7 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Number of Group 1 serial condenser fans (0 = Group 1 disable</t>
+          <t>Number of Group 1 serial condenser fans 0 Group 1 disable</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
@@ -18512,7 +18898,7 @@
         <v>3</v>
       </c>
       <c r="J169" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="K169" t="inlineStr">
         <is>
@@ -18599,7 +18985,7 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Serial address for condenser fan 1 (Group 1)</t>
+          <t>Serial address for condenser fan 1 Group 1</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
@@ -18624,7 +19010,7 @@
         <v>3</v>
       </c>
       <c r="J170" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="K170" t="inlineStr">
         <is>
@@ -18711,7 +19097,7 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Serial address for condenser fan 2 (Group 1)</t>
+          <t>Serial address for condenser fan 2 Group 1</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
@@ -18736,7 +19122,7 @@
         <v>3</v>
       </c>
       <c r="J171" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="K171" t="inlineStr">
         <is>
@@ -18823,7 +19209,7 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Number of Group 2 serial condenser fans (0 = Group 2 disable</t>
+          <t>Number of Group 2 serial condenser fans 0 Group 2 disable</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
@@ -18848,7 +19234,7 @@
         <v>3</v>
       </c>
       <c r="J172" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="K172" t="inlineStr">
         <is>
@@ -18935,7 +19321,7 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Serial address for condenser fan 1 (Group 2)</t>
+          <t>Serial address for condenser fan 1 Group 2</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
@@ -18960,7 +19346,7 @@
         <v>3</v>
       </c>
       <c r="J173" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="K173" t="inlineStr">
         <is>
@@ -19047,7 +19433,7 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Serial address for condenser fan 2 (Group 2)</t>
+          <t>Serial address for condenser fan 2 Group 2</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
@@ -19072,7 +19458,7 @@
         <v>3</v>
       </c>
       <c r="J174" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="K174" t="inlineStr">
         <is>
@@ -19159,7 +19545,7 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Serial baudrate for condenser fan (kbaud)</t>
+          <t>Serial baudrate for condenser fan kbaud</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
@@ -19184,10 +19570,14 @@
         <v>3</v>
       </c>
       <c r="J175" t="n">
-        <v>10</v>
-      </c>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
+        <v>16</v>
+      </c>
+      <c r="K175" t="n">
+        <v>0</v>
+      </c>
+      <c r="L175" t="n">
+        <v>100</v>
+      </c>
       <c r="M175" t="inlineStr"/>
       <c r="N175" t="n">
         <v>0</v>
@@ -19288,7 +19678,7 @@
         <v>3</v>
       </c>
       <c r="J176" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="K176" t="inlineStr">
         <is>
@@ -19375,7 +19765,7 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Default configuration sent to condenser fan (at power on)</t>
+          <t>Default configuration sent to condenser fan at power on</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
@@ -19400,10 +19790,14 @@
         <v>3</v>
       </c>
       <c r="J177" t="n">
-        <v>10</v>
-      </c>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
+        <v>16</v>
+      </c>
+      <c r="K177" t="n">
+        <v>0</v>
+      </c>
+      <c r="L177" t="n">
+        <v>100</v>
+      </c>
       <c r="M177" t="inlineStr"/>
       <c r="N177" t="n">
         <v>0</v>
@@ -19504,10 +19898,14 @@
         <v>3</v>
       </c>
       <c r="J178" t="n">
-        <v>10</v>
-      </c>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
+        <v>16</v>
+      </c>
+      <c r="K178" t="n">
+        <v>0</v>
+      </c>
+      <c r="L178" t="n">
+        <v>100</v>
+      </c>
       <c r="M178" t="inlineStr"/>
       <c r="N178" t="n">
         <v>0</v>
@@ -19608,10 +20006,14 @@
         <v>3</v>
       </c>
       <c r="J179" t="n">
-        <v>10</v>
-      </c>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
+        <v>16</v>
+      </c>
+      <c r="K179" t="n">
+        <v>0</v>
+      </c>
+      <c r="L179" t="n">
+        <v>100</v>
+      </c>
       <c r="M179" t="inlineStr"/>
       <c r="N179" t="n">
         <v>0</v>
@@ -19712,10 +20114,14 @@
         <v>3</v>
       </c>
       <c r="J180" t="n">
-        <v>10</v>
-      </c>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
+        <v>16</v>
+      </c>
+      <c r="K180" t="n">
+        <v>0</v>
+      </c>
+      <c r="L180" t="n">
+        <v>100</v>
+      </c>
       <c r="M180" t="inlineStr"/>
       <c r="N180" t="n">
         <v>0</v>
@@ -19816,10 +20222,14 @@
         <v>3</v>
       </c>
       <c r="J181" t="n">
-        <v>10</v>
-      </c>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
+        <v>16</v>
+      </c>
+      <c r="K181" t="n">
+        <v>0</v>
+      </c>
+      <c r="L181" t="n">
+        <v>100</v>
+      </c>
       <c r="M181" t="inlineStr"/>
       <c r="N181" t="n">
         <v>0</v>
@@ -19920,10 +20330,14 @@
         <v>3</v>
       </c>
       <c r="J182" t="n">
-        <v>10</v>
-      </c>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
+        <v>16</v>
+      </c>
+      <c r="K182" t="n">
+        <v>0</v>
+      </c>
+      <c r="L182" t="n">
+        <v>100</v>
+      </c>
       <c r="M182" t="inlineStr"/>
       <c r="N182" t="n">
         <v>0</v>
@@ -20024,7 +20438,7 @@
         <v>3</v>
       </c>
       <c r="J183" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="K183" t="inlineStr">
         <is>
@@ -20136,7 +20550,7 @@
         <v>3</v>
       </c>
       <c r="J184" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="K184" t="inlineStr">
         <is>
@@ -20248,10 +20662,14 @@
         <v>3</v>
       </c>
       <c r="J185" t="n">
-        <v>10</v>
-      </c>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
+        <v>16</v>
+      </c>
+      <c r="K185" t="n">
+        <v>0</v>
+      </c>
+      <c r="L185" t="n">
+        <v>100</v>
+      </c>
       <c r="M185" t="inlineStr"/>
       <c r="N185" t="n">
         <v>0</v>
@@ -20352,7 +20770,7 @@
         <v>3</v>
       </c>
       <c r="J186" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="K186" t="inlineStr">
         <is>
@@ -20464,10 +20882,14 @@
         <v>3</v>
       </c>
       <c r="J187" t="n">
-        <v>10</v>
-      </c>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
+        <v>16</v>
+      </c>
+      <c r="K187" t="n">
+        <v>0</v>
+      </c>
+      <c r="L187" t="n">
+        <v>100</v>
+      </c>
       <c r="M187" t="inlineStr"/>
       <c r="N187" t="n">
         <v>0</v>
@@ -20568,10 +20990,14 @@
         <v>3</v>
       </c>
       <c r="J188" t="n">
-        <v>10</v>
-      </c>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
+        <v>16</v>
+      </c>
+      <c r="K188" t="n">
+        <v>0</v>
+      </c>
+      <c r="L188" t="n">
+        <v>100</v>
+      </c>
       <c r="M188" t="inlineStr"/>
       <c r="N188" t="n">
         <v>0</v>
@@ -20672,10 +21098,14 @@
         <v>3</v>
       </c>
       <c r="J189" t="n">
-        <v>10</v>
-      </c>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
+        <v>16</v>
+      </c>
+      <c r="K189" t="n">
+        <v>0</v>
+      </c>
+      <c r="L189" t="n">
+        <v>100</v>
+      </c>
       <c r="M189" t="inlineStr"/>
       <c r="N189" t="n">
         <v>0</v>
@@ -20776,10 +21206,14 @@
         <v>3</v>
       </c>
       <c r="J190" t="n">
-        <v>10</v>
-      </c>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
+        <v>16</v>
+      </c>
+      <c r="K190" t="n">
+        <v>0</v>
+      </c>
+      <c r="L190" t="n">
+        <v>100</v>
+      </c>
       <c r="M190" t="inlineStr"/>
       <c r="N190" t="n">
         <v>0</v>
@@ -20880,10 +21314,14 @@
         <v>3</v>
       </c>
       <c r="J191" t="n">
-        <v>10</v>
-      </c>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
+        <v>16</v>
+      </c>
+      <c r="K191" t="n">
+        <v>0</v>
+      </c>
+      <c r="L191" t="n">
+        <v>100</v>
+      </c>
       <c r="M191" t="inlineStr"/>
       <c r="N191" t="n">
         <v>0</v>
@@ -20984,7 +21422,7 @@
         <v>3</v>
       </c>
       <c r="J192" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="K192" t="inlineStr">
         <is>
@@ -21096,7 +21534,7 @@
         <v>3</v>
       </c>
       <c r="J193" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="K193" t="inlineStr">
         <is>
@@ -21208,10 +21646,14 @@
         <v>3</v>
       </c>
       <c r="J194" t="n">
-        <v>10</v>
-      </c>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
+        <v>16</v>
+      </c>
+      <c r="K194" t="n">
+        <v>0</v>
+      </c>
+      <c r="L194" t="n">
+        <v>100</v>
+      </c>
       <c r="M194" t="inlineStr"/>
       <c r="N194" t="n">
         <v>0</v>
@@ -21312,7 +21754,7 @@
         <v>3</v>
       </c>
       <c r="J195" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="K195" t="inlineStr">
         <is>
@@ -21424,10 +21866,14 @@
         <v>3</v>
       </c>
       <c r="J196" t="n">
-        <v>10</v>
-      </c>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
+        <v>16</v>
+      </c>
+      <c r="K196" t="n">
+        <v>0</v>
+      </c>
+      <c r="L196" t="n">
+        <v>100</v>
+      </c>
       <c r="M196" t="inlineStr"/>
       <c r="N196" t="n">
         <v>0</v>
@@ -21528,7 +21974,7 @@
         <v>3</v>
       </c>
       <c r="J197" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="K197" t="inlineStr">
         <is>
@@ -21644,7 +22090,7 @@
         <v>3</v>
       </c>
       <c r="J198" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="K198" t="inlineStr">
         <is>
@@ -21760,10 +22206,14 @@
         <v>3</v>
       </c>
       <c r="J199" t="n">
-        <v>10</v>
-      </c>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
+        <v>16</v>
+      </c>
+      <c r="K199" t="n">
+        <v>0</v>
+      </c>
+      <c r="L199" t="n">
+        <v>100</v>
+      </c>
       <c r="M199" t="inlineStr"/>
       <c r="N199" t="n">
         <v>0</v>
@@ -21864,10 +22314,14 @@
         <v>3</v>
       </c>
       <c r="J200" t="n">
-        <v>10</v>
-      </c>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
+        <v>16</v>
+      </c>
+      <c r="K200" t="n">
+        <v>0</v>
+      </c>
+      <c r="L200" t="n">
+        <v>100</v>
+      </c>
       <c r="M200" t="inlineStr"/>
       <c r="N200" t="n">
         <v>0</v>
@@ -21968,10 +22422,14 @@
         <v>3</v>
       </c>
       <c r="J201" t="n">
-        <v>10</v>
-      </c>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
+        <v>16</v>
+      </c>
+      <c r="K201" t="n">
+        <v>0</v>
+      </c>
+      <c r="L201" t="n">
+        <v>100</v>
+      </c>
       <c r="M201" t="inlineStr"/>
       <c r="N201" t="n">
         <v>0</v>
@@ -22072,7 +22530,7 @@
         <v>3</v>
       </c>
       <c r="J202" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="K202" t="inlineStr">
         <is>
@@ -22188,7 +22646,7 @@
         <v>3</v>
       </c>
       <c r="J203" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="K203" t="inlineStr">
         <is>
@@ -22304,10 +22762,14 @@
         <v>3</v>
       </c>
       <c r="J204" t="n">
-        <v>10</v>
-      </c>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
+        <v>16</v>
+      </c>
+      <c r="K204" t="n">
+        <v>0</v>
+      </c>
+      <c r="L204" t="n">
+        <v>100</v>
+      </c>
       <c r="M204" t="inlineStr"/>
       <c r="N204" t="n">
         <v>0</v>
@@ -22408,10 +22870,14 @@
         <v>3</v>
       </c>
       <c r="J205" t="n">
-        <v>10</v>
-      </c>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
+        <v>16</v>
+      </c>
+      <c r="K205" t="n">
+        <v>0</v>
+      </c>
+      <c r="L205" t="n">
+        <v>100</v>
+      </c>
       <c r="M205" t="inlineStr"/>
       <c r="N205" t="n">
         <v>0</v>
@@ -22512,7 +22978,7 @@
         <v>3</v>
       </c>
       <c r="J206" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="K206" t="inlineStr">
         <is>
@@ -22628,7 +23094,7 @@
         <v>3</v>
       </c>
       <c r="J207" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="K207" t="inlineStr">
         <is>
@@ -22744,7 +23210,7 @@
         <v>3</v>
       </c>
       <c r="J208" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="K208" t="inlineStr">
         <is>
@@ -22860,7 +23326,7 @@
         <v>3</v>
       </c>
       <c r="J209" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="K209" t="inlineStr">
         <is>
@@ -22976,7 +23442,7 @@
         <v>3</v>
       </c>
       <c r="J210" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="K210" t="inlineStr">
         <is>
@@ -23092,7 +23558,7 @@
         <v>3</v>
       </c>
       <c r="J211" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="K211" t="inlineStr">
         <is>
@@ -23208,10 +23674,14 @@
         <v>3</v>
       </c>
       <c r="J212" t="n">
-        <v>10</v>
-      </c>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
+        <v>16</v>
+      </c>
+      <c r="K212" t="n">
+        <v>0</v>
+      </c>
+      <c r="L212" t="n">
+        <v>100</v>
+      </c>
       <c r="M212" t="inlineStr"/>
       <c r="N212" t="n">
         <v>0</v>
@@ -23312,7 +23782,7 @@
         <v>3</v>
       </c>
       <c r="J213" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="K213" t="inlineStr">
         <is>
@@ -23428,7 +23898,7 @@
         <v>3</v>
       </c>
       <c r="J214" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="K214" t="inlineStr">
         <is>
@@ -23544,7 +24014,7 @@
         <v>3</v>
       </c>
       <c r="J215" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="K215" t="inlineStr">
         <is>
@@ -23660,7 +24130,7 @@
         <v>3</v>
       </c>
       <c r="J216" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="K216" t="inlineStr">
         <is>
@@ -23776,7 +24246,7 @@
         <v>3</v>
       </c>
       <c r="J217" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="K217" t="inlineStr">
         <is>
@@ -23892,10 +24362,14 @@
         <v>3</v>
       </c>
       <c r="J218" t="n">
-        <v>10</v>
-      </c>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
+        <v>16</v>
+      </c>
+      <c r="K218" t="n">
+        <v>0</v>
+      </c>
+      <c r="L218" t="n">
+        <v>100</v>
+      </c>
       <c r="M218" t="inlineStr"/>
       <c r="N218" t="n">
         <v>0</v>
@@ -23996,10 +24470,14 @@
         <v>3</v>
       </c>
       <c r="J219" t="n">
-        <v>10</v>
-      </c>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
+        <v>16</v>
+      </c>
+      <c r="K219" t="n">
+        <v>0</v>
+      </c>
+      <c r="L219" t="n">
+        <v>100</v>
+      </c>
       <c r="M219" t="inlineStr"/>
       <c r="N219" t="n">
         <v>0</v>
@@ -24100,7 +24578,7 @@
         <v>3</v>
       </c>
       <c r="J220" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="K220" t="inlineStr">
         <is>
@@ -24216,10 +24694,14 @@
         <v>3</v>
       </c>
       <c r="J221" t="n">
-        <v>10</v>
-      </c>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
+        <v>16</v>
+      </c>
+      <c r="K221" t="n">
+        <v>0</v>
+      </c>
+      <c r="L221" t="n">
+        <v>100</v>
+      </c>
       <c r="M221" t="inlineStr"/>
       <c r="N221" t="n">
         <v>0</v>
@@ -24320,10 +24802,14 @@
         <v>3</v>
       </c>
       <c r="J222" t="n">
-        <v>10</v>
-      </c>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
+        <v>16</v>
+      </c>
+      <c r="K222" t="n">
+        <v>0</v>
+      </c>
+      <c r="L222" t="n">
+        <v>100</v>
+      </c>
       <c r="M222" t="inlineStr"/>
       <c r="N222" t="n">
         <v>0</v>
@@ -24424,10 +24910,14 @@
         <v>3</v>
       </c>
       <c r="J223" t="n">
-        <v>10</v>
-      </c>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
+        <v>16</v>
+      </c>
+      <c r="K223" t="n">
+        <v>0</v>
+      </c>
+      <c r="L223" t="n">
+        <v>100</v>
+      </c>
       <c r="M223" t="inlineStr"/>
       <c r="N223" t="n">
         <v>0</v>
@@ -24528,10 +25018,14 @@
         <v>3</v>
       </c>
       <c r="J224" t="n">
-        <v>10</v>
-      </c>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
+        <v>16</v>
+      </c>
+      <c r="K224" t="n">
+        <v>0</v>
+      </c>
+      <c r="L224" t="n">
+        <v>100</v>
+      </c>
       <c r="M224" t="inlineStr"/>
       <c r="N224" t="n">
         <v>0</v>
@@ -24632,10 +25126,14 @@
         <v>3</v>
       </c>
       <c r="J225" t="n">
-        <v>10</v>
-      </c>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
+        <v>16</v>
+      </c>
+      <c r="K225" t="n">
+        <v>0</v>
+      </c>
+      <c r="L225" t="n">
+        <v>100</v>
+      </c>
       <c r="M225" t="inlineStr"/>
       <c r="N225" t="n">
         <v>0</v>
@@ -24736,10 +25234,14 @@
         <v>3</v>
       </c>
       <c r="J226" t="n">
-        <v>10</v>
-      </c>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
+        <v>16</v>
+      </c>
+      <c r="K226" t="n">
+        <v>0</v>
+      </c>
+      <c r="L226" t="n">
+        <v>100</v>
+      </c>
       <c r="M226" t="inlineStr"/>
       <c r="N226" t="n">
         <v>0</v>
@@ -24840,10 +25342,14 @@
         <v>3</v>
       </c>
       <c r="J227" t="n">
-        <v>10</v>
-      </c>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
+        <v>16</v>
+      </c>
+      <c r="K227" t="n">
+        <v>0</v>
+      </c>
+      <c r="L227" t="n">
+        <v>100</v>
+      </c>
       <c r="M227" t="inlineStr"/>
       <c r="N227" t="n">
         <v>0</v>
@@ -24944,10 +25450,14 @@
         <v>3</v>
       </c>
       <c r="J228" t="n">
-        <v>10</v>
-      </c>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
+        <v>16</v>
+      </c>
+      <c r="K228" t="n">
+        <v>0</v>
+      </c>
+      <c r="L228" t="n">
+        <v>100</v>
+      </c>
       <c r="M228" t="inlineStr"/>
       <c r="N228" t="n">
         <v>0</v>
@@ -25048,10 +25558,14 @@
         <v>3</v>
       </c>
       <c r="J229" t="n">
-        <v>10</v>
-      </c>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
+        <v>16</v>
+      </c>
+      <c r="K229" t="n">
+        <v>0</v>
+      </c>
+      <c r="L229" t="n">
+        <v>100</v>
+      </c>
       <c r="M229" t="inlineStr"/>
       <c r="N229" t="n">
         <v>0</v>
@@ -25152,10 +25666,14 @@
         <v>3</v>
       </c>
       <c r="J230" t="n">
-        <v>10</v>
-      </c>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
+        <v>16</v>
+      </c>
+      <c r="K230" t="n">
+        <v>0</v>
+      </c>
+      <c r="L230" t="n">
+        <v>100</v>
+      </c>
       <c r="M230" t="inlineStr"/>
       <c r="N230" t="n">
         <v>0</v>
@@ -25256,10 +25774,14 @@
         <v>3</v>
       </c>
       <c r="J231" t="n">
-        <v>10</v>
-      </c>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
+        <v>16</v>
+      </c>
+      <c r="K231" t="n">
+        <v>0</v>
+      </c>
+      <c r="L231" t="n">
+        <v>100</v>
+      </c>
       <c r="M231" t="inlineStr"/>
       <c r="N231" t="n">
         <v>0</v>
@@ -25335,7 +25857,7 @@
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>Digital inputs 1 alarm delay (base time depends on par. ibt)</t>
+          <t>Digital inputs 1 alarm delay base time depends on par. ibt</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
@@ -25360,7 +25882,7 @@
         <v>3</v>
       </c>
       <c r="J232" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="K232" t="inlineStr">
         <is>
@@ -25476,10 +25998,14 @@
         <v>3</v>
       </c>
       <c r="J233" t="n">
-        <v>10</v>
-      </c>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
+        <v>16</v>
+      </c>
+      <c r="K233" t="n">
+        <v>0</v>
+      </c>
+      <c r="L233" t="n">
+        <v>100</v>
+      </c>
       <c r="M233" t="inlineStr"/>
       <c r="N233" t="n">
         <v>0</v>
@@ -25580,10 +26106,14 @@
         <v>3</v>
       </c>
       <c r="J234" t="n">
-        <v>10</v>
-      </c>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
+        <v>16</v>
+      </c>
+      <c r="K234" t="n">
+        <v>0</v>
+      </c>
+      <c r="L234" t="n">
+        <v>100</v>
+      </c>
       <c r="M234" t="inlineStr"/>
       <c r="N234" t="n">
         <v>0</v>
@@ -25659,7 +26189,7 @@
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>Digital inputs 2 alarm delay (base time depends on par. ibt)</t>
+          <t>Digital inputs 2 alarm delay base time depends on par. ibt</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
@@ -25684,7 +26214,7 @@
         <v>3</v>
       </c>
       <c r="J235" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="K235" t="inlineStr">
         <is>
@@ -25800,7 +26330,7 @@
         <v>3</v>
       </c>
       <c r="J236" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="K236" t="inlineStr">
         <is>
@@ -25912,10 +26442,14 @@
         <v>3</v>
       </c>
       <c r="J237" t="n">
-        <v>10</v>
-      </c>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
+        <v>16</v>
+      </c>
+      <c r="K237" t="n">
+        <v>0</v>
+      </c>
+      <c r="L237" t="n">
+        <v>100</v>
+      </c>
       <c r="M237" t="inlineStr"/>
       <c r="N237" t="n">
         <v>0</v>
@@ -26016,10 +26550,14 @@
         <v>3</v>
       </c>
       <c r="J238" t="n">
-        <v>10</v>
-      </c>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
+        <v>16</v>
+      </c>
+      <c r="K238" t="n">
+        <v>0</v>
+      </c>
+      <c r="L238" t="n">
+        <v>100</v>
+      </c>
       <c r="M238" t="inlineStr"/>
       <c r="N238" t="n">
         <v>0</v>
@@ -26120,7 +26658,7 @@
         <v>3</v>
       </c>
       <c r="J239" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="K239" t="inlineStr">
         <is>
@@ -26211,7 +26749,7 @@
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>Energy saving controls the lights (lights OFF when energy sa</t>
+          <t>Energy saving controls the lights lights OFF when energy sa</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
@@ -26236,10 +26774,14 @@
         <v>3</v>
       </c>
       <c r="J240" t="n">
-        <v>10</v>
-      </c>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr"/>
+        <v>16</v>
+      </c>
+      <c r="K240" t="n">
+        <v>0</v>
+      </c>
+      <c r="L240" t="n">
+        <v>100</v>
+      </c>
       <c r="M240" t="inlineStr"/>
       <c r="N240" t="n">
         <v>0</v>
@@ -26340,7 +26882,7 @@
         <v>3</v>
       </c>
       <c r="J241" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="K241" t="inlineStr">
         <is>
@@ -26452,7 +26994,7 @@
         <v>3</v>
       </c>
       <c r="J242" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="K242" t="inlineStr">
         <is>
@@ -26564,10 +27106,14 @@
         <v>3</v>
       </c>
       <c r="J243" t="n">
-        <v>10</v>
-      </c>
-      <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr"/>
+        <v>16</v>
+      </c>
+      <c r="K243" t="n">
+        <v>0</v>
+      </c>
+      <c r="L243" t="n">
+        <v>100</v>
+      </c>
       <c r="M243" t="inlineStr"/>
       <c r="N243" t="n">
         <v>0</v>
@@ -26668,7 +27214,7 @@
         <v>3</v>
       </c>
       <c r="J244" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="K244" t="inlineStr">
         <is>
@@ -26780,7 +27326,7 @@
         <v>3</v>
       </c>
       <c r="J245" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="K245" t="inlineStr">
         <is>
@@ -26892,7 +27438,7 @@
         <v>3</v>
       </c>
       <c r="J246" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="K246" t="inlineStr">
         <is>
@@ -27004,10 +27550,14 @@
         <v>3</v>
       </c>
       <c r="J247" t="n">
-        <v>10</v>
-      </c>
-      <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr"/>
+        <v>16</v>
+      </c>
+      <c r="K247" t="n">
+        <v>0</v>
+      </c>
+      <c r="L247" t="n">
+        <v>100</v>
+      </c>
       <c r="M247" t="inlineStr"/>
       <c r="N247" t="n">
         <v>0</v>
@@ -27108,10 +27658,14 @@
         <v>3</v>
       </c>
       <c r="J248" t="n">
-        <v>10</v>
-      </c>
-      <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr"/>
+        <v>16</v>
+      </c>
+      <c r="K248" t="n">
+        <v>0</v>
+      </c>
+      <c r="L248" t="n">
+        <v>100</v>
+      </c>
       <c r="M248" t="inlineStr"/>
       <c r="N248" t="n">
         <v>0</v>
@@ -27212,7 +27766,7 @@
         <v>3</v>
       </c>
       <c r="J249" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="K249" t="inlineStr">
         <is>
@@ -27328,7 +27882,7 @@
         <v>3</v>
       </c>
       <c r="J250" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="K250" t="inlineStr">
         <is>
@@ -27444,7 +27998,7 @@
         <v>3</v>
       </c>
       <c r="J251" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="K251" t="inlineStr">
         <is>
@@ -27560,7 +28114,7 @@
         <v>3</v>
       </c>
       <c r="J252" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="K252" t="inlineStr">
         <is>
@@ -27676,10 +28230,14 @@
         <v>3</v>
       </c>
       <c r="J253" t="n">
-        <v>10</v>
-      </c>
-      <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr"/>
+        <v>16</v>
+      </c>
+      <c r="K253" t="n">
+        <v>0</v>
+      </c>
+      <c r="L253" t="n">
+        <v>100</v>
+      </c>
       <c r="M253" t="inlineStr"/>
       <c r="N253" t="n">
         <v>0</v>
@@ -27780,10 +28338,14 @@
         <v>3</v>
       </c>
       <c r="J254" t="n">
-        <v>10</v>
-      </c>
-      <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr"/>
+        <v>16</v>
+      </c>
+      <c r="K254" t="n">
+        <v>0</v>
+      </c>
+      <c r="L254" t="n">
+        <v>100</v>
+      </c>
       <c r="M254" t="inlineStr"/>
       <c r="N254" t="n">
         <v>0</v>
@@ -27884,10 +28446,14 @@
         <v>3</v>
       </c>
       <c r="J255" t="n">
-        <v>10</v>
-      </c>
-      <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr"/>
+        <v>16</v>
+      </c>
+      <c r="K255" t="n">
+        <v>0</v>
+      </c>
+      <c r="L255" t="n">
+        <v>100</v>
+      </c>
       <c r="M255" t="inlineStr"/>
       <c r="N255" t="n">
         <v>0</v>
@@ -27988,10 +28554,14 @@
         <v>3</v>
       </c>
       <c r="J256" t="n">
-        <v>10</v>
-      </c>
-      <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr"/>
+        <v>16</v>
+      </c>
+      <c r="K256" t="n">
+        <v>0</v>
+      </c>
+      <c r="L256" t="n">
+        <v>100</v>
+      </c>
       <c r="M256" t="inlineStr"/>
       <c r="N256" t="n">
         <v>0</v>
@@ -28092,10 +28662,14 @@
         <v>3</v>
       </c>
       <c r="J257" t="n">
-        <v>10</v>
-      </c>
-      <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr"/>
+        <v>16</v>
+      </c>
+      <c r="K257" t="n">
+        <v>0</v>
+      </c>
+      <c r="L257" t="n">
+        <v>100</v>
+      </c>
       <c r="M257" t="inlineStr"/>
       <c r="N257" t="n">
         <v>0</v>
@@ -28196,10 +28770,14 @@
         <v>3</v>
       </c>
       <c r="J258" t="n">
-        <v>10</v>
-      </c>
-      <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr"/>
+        <v>16</v>
+      </c>
+      <c r="K258" t="n">
+        <v>0</v>
+      </c>
+      <c r="L258" t="n">
+        <v>100</v>
+      </c>
       <c r="M258" t="inlineStr"/>
       <c r="N258" t="n">
         <v>0</v>
@@ -28300,10 +28878,14 @@
         <v>3</v>
       </c>
       <c r="J259" t="n">
-        <v>10</v>
-      </c>
-      <c r="K259" t="inlineStr"/>
-      <c r="L259" t="inlineStr"/>
+        <v>16</v>
+      </c>
+      <c r="K259" t="n">
+        <v>0</v>
+      </c>
+      <c r="L259" t="n">
+        <v>100</v>
+      </c>
       <c r="M259" t="inlineStr"/>
       <c r="N259" t="n">
         <v>0</v>
@@ -28404,7 +28986,7 @@
         <v>3</v>
       </c>
       <c r="J260" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="K260" t="inlineStr">
         <is>
@@ -28520,7 +29102,7 @@
         <v>3</v>
       </c>
       <c r="J261" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="K261" t="inlineStr">
         <is>
@@ -28636,7 +29218,7 @@
         <v>3</v>
       </c>
       <c r="J262" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="K262" t="inlineStr">
         <is>
@@ -28752,7 +29334,7 @@
         <v>3</v>
       </c>
       <c r="J263" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="K263" t="inlineStr">
         <is>
@@ -28868,7 +29450,7 @@
         <v>3</v>
       </c>
       <c r="J264" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="K264" t="inlineStr">
         <is>
@@ -28984,7 +29566,7 @@
         <v>3</v>
       </c>
       <c r="J265" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="K265" t="inlineStr">
         <is>
@@ -29100,7 +29682,7 @@
         <v>3</v>
       </c>
       <c r="J266" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="K266" t="inlineStr">
         <is>
@@ -29212,10 +29794,14 @@
         <v>3</v>
       </c>
       <c r="J267" t="n">
-        <v>10</v>
-      </c>
-      <c r="K267" t="inlineStr"/>
-      <c r="L267" t="inlineStr"/>
+        <v>16</v>
+      </c>
+      <c r="K267" t="n">
+        <v>0</v>
+      </c>
+      <c r="L267" t="n">
+        <v>100</v>
+      </c>
       <c r="M267" t="inlineStr"/>
       <c r="N267" t="n">
         <v>0</v>
@@ -29316,10 +29902,14 @@
         <v>3</v>
       </c>
       <c r="J268" t="n">
-        <v>10</v>
-      </c>
-      <c r="K268" t="inlineStr"/>
-      <c r="L268" t="inlineStr"/>
+        <v>16</v>
+      </c>
+      <c r="K268" t="n">
+        <v>0</v>
+      </c>
+      <c r="L268" t="n">
+        <v>100</v>
+      </c>
       <c r="M268" t="inlineStr"/>
       <c r="N268" t="n">
         <v>0</v>
@@ -29420,7 +30010,7 @@
         <v>3</v>
       </c>
       <c r="J269" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="K269" t="inlineStr">
         <is>
@@ -29511,7 +30101,7 @@
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>ONOFF button configuration (right lower side)</t>
+          <t>ONOFF button configuration right lower side</t>
         </is>
       </c>
       <c r="E270" t="inlineStr">
@@ -29536,10 +30126,14 @@
         <v>3</v>
       </c>
       <c r="J270" t="n">
-        <v>10</v>
-      </c>
-      <c r="K270" t="inlineStr"/>
-      <c r="L270" t="inlineStr"/>
+        <v>16</v>
+      </c>
+      <c r="K270" t="n">
+        <v>0</v>
+      </c>
+      <c r="L270" t="n">
+        <v>100</v>
+      </c>
       <c r="M270" t="inlineStr"/>
       <c r="N270" t="n">
         <v>0</v>
@@ -29615,7 +30209,7 @@
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>ONOFF button timed (3sec) configuration (right lower side)</t>
+          <t>ONOFF button timed 3sec configuration right lower side</t>
         </is>
       </c>
       <c r="E271" t="inlineStr">
@@ -29640,10 +30234,14 @@
         <v>3</v>
       </c>
       <c r="J271" t="n">
-        <v>10</v>
-      </c>
-      <c r="K271" t="inlineStr"/>
-      <c r="L271" t="inlineStr"/>
+        <v>16</v>
+      </c>
+      <c r="K271" t="n">
+        <v>0</v>
+      </c>
+      <c r="L271" t="n">
+        <v>100</v>
+      </c>
       <c r="M271" t="inlineStr"/>
       <c r="N271" t="n">
         <v>0</v>
@@ -29719,7 +30317,7 @@
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>Light button configuration (left upper side)</t>
+          <t>Light button configuration left upper side</t>
         </is>
       </c>
       <c r="E272" t="inlineStr">
@@ -29744,10 +30342,14 @@
         <v>3</v>
       </c>
       <c r="J272" t="n">
-        <v>10</v>
-      </c>
-      <c r="K272" t="inlineStr"/>
-      <c r="L272" t="inlineStr"/>
+        <v>16</v>
+      </c>
+      <c r="K272" t="n">
+        <v>0</v>
+      </c>
+      <c r="L272" t="n">
+        <v>100</v>
+      </c>
       <c r="M272" t="inlineStr"/>
       <c r="N272" t="n">
         <v>0</v>
@@ -29823,7 +30425,7 @@
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>Light button timed (3sec) configuration (left upper side)</t>
+          <t>Light button timed 3sec configuration left upper side</t>
         </is>
       </c>
       <c r="E273" t="inlineStr">
@@ -29848,10 +30450,14 @@
         <v>3</v>
       </c>
       <c r="J273" t="n">
-        <v>10</v>
-      </c>
-      <c r="K273" t="inlineStr"/>
-      <c r="L273" t="inlineStr"/>
+        <v>16</v>
+      </c>
+      <c r="K273" t="n">
+        <v>0</v>
+      </c>
+      <c r="L273" t="n">
+        <v>100</v>
+      </c>
       <c r="M273" t="inlineStr"/>
       <c r="N273" t="n">
         <v>0</v>
@@ -29927,7 +30533,7 @@
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>DEF button configuration (left middle side)</t>
+          <t>DEF button configuration left middle side</t>
         </is>
       </c>
       <c r="E274" t="inlineStr">
@@ -29952,10 +30558,14 @@
         <v>3</v>
       </c>
       <c r="J274" t="n">
-        <v>10</v>
-      </c>
-      <c r="K274" t="inlineStr"/>
-      <c r="L274" t="inlineStr"/>
+        <v>16</v>
+      </c>
+      <c r="K274" t="n">
+        <v>0</v>
+      </c>
+      <c r="L274" t="n">
+        <v>100</v>
+      </c>
       <c r="M274" t="inlineStr"/>
       <c r="N274" t="n">
         <v>0</v>
@@ -30031,7 +30641,7 @@
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>DEF button timed (3sec) configuration (left middle side)</t>
+          <t>DEF button timed 3sec configuration left middle side</t>
         </is>
       </c>
       <c r="E275" t="inlineStr">
@@ -30056,10 +30666,14 @@
         <v>3</v>
       </c>
       <c r="J275" t="n">
-        <v>10</v>
-      </c>
-      <c r="K275" t="inlineStr"/>
-      <c r="L275" t="inlineStr"/>
+        <v>16</v>
+      </c>
+      <c r="K275" t="n">
+        <v>0</v>
+      </c>
+      <c r="L275" t="n">
+        <v>100</v>
+      </c>
       <c r="M275" t="inlineStr"/>
       <c r="N275" t="n">
         <v>0</v>
@@ -30160,10 +30774,14 @@
         <v>3</v>
       </c>
       <c r="J276" t="n">
-        <v>10</v>
-      </c>
-      <c r="K276" t="inlineStr"/>
-      <c r="L276" t="inlineStr"/>
+        <v>16</v>
+      </c>
+      <c r="K276" t="n">
+        <v>0</v>
+      </c>
+      <c r="L276" t="n">
+        <v>100</v>
+      </c>
       <c r="M276" t="inlineStr"/>
       <c r="N276" t="n">
         <v>0</v>
@@ -30239,7 +30857,7 @@
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>Down button timed (3sec) configuration</t>
+          <t>Down button timed 3sec configuration</t>
         </is>
       </c>
       <c r="E277" t="inlineStr">
@@ -30264,10 +30882,14 @@
         <v>3</v>
       </c>
       <c r="J277" t="n">
-        <v>10</v>
-      </c>
-      <c r="K277" t="inlineStr"/>
-      <c r="L277" t="inlineStr"/>
+        <v>16</v>
+      </c>
+      <c r="K277" t="n">
+        <v>0</v>
+      </c>
+      <c r="L277" t="n">
+        <v>100</v>
+      </c>
       <c r="M277" t="inlineStr"/>
       <c r="N277" t="n">
         <v>0</v>
@@ -30368,10 +30990,14 @@
         <v>3</v>
       </c>
       <c r="J278" t="n">
-        <v>10</v>
-      </c>
-      <c r="K278" t="inlineStr"/>
-      <c r="L278" t="inlineStr"/>
+        <v>16</v>
+      </c>
+      <c r="K278" t="n">
+        <v>0</v>
+      </c>
+      <c r="L278" t="n">
+        <v>100</v>
+      </c>
       <c r="M278" t="inlineStr"/>
       <c r="N278" t="n">
         <v>0</v>
@@ -30447,7 +31073,7 @@
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>UP button timed (3sec) configuration</t>
+          <t>UP button timed 3sec configuration</t>
         </is>
       </c>
       <c r="E279" t="inlineStr">
@@ -30472,10 +31098,14 @@
         <v>3</v>
       </c>
       <c r="J279" t="n">
-        <v>10</v>
-      </c>
-      <c r="K279" t="inlineStr"/>
-      <c r="L279" t="inlineStr"/>
+        <v>16</v>
+      </c>
+      <c r="K279" t="n">
+        <v>0</v>
+      </c>
+      <c r="L279" t="n">
+        <v>100</v>
+      </c>
       <c r="M279" t="inlineStr"/>
       <c r="N279" t="n">
         <v>0</v>
@@ -30576,10 +31206,14 @@
         <v>3</v>
       </c>
       <c r="J280" t="n">
-        <v>10</v>
-      </c>
-      <c r="K280" t="inlineStr"/>
-      <c r="L280" t="inlineStr"/>
+        <v>16</v>
+      </c>
+      <c r="K280" t="n">
+        <v>0</v>
+      </c>
+      <c r="L280" t="n">
+        <v>100</v>
+      </c>
       <c r="M280" t="inlineStr"/>
       <c r="N280" t="n">
         <v>0</v>
@@ -30655,7 +31289,7 @@
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>AUX button timed (3sec) configuration</t>
+          <t>AUX button timed 3sec configuration</t>
         </is>
       </c>
       <c r="E281" t="inlineStr">
@@ -30680,10 +31314,14 @@
         <v>3</v>
       </c>
       <c r="J281" t="n">
-        <v>10</v>
-      </c>
-      <c r="K281" t="inlineStr"/>
-      <c r="L281" t="inlineStr"/>
+        <v>16</v>
+      </c>
+      <c r="K281" t="n">
+        <v>0</v>
+      </c>
+      <c r="L281" t="n">
+        <v>100</v>
+      </c>
       <c r="M281" t="inlineStr"/>
       <c r="N281" t="n">
         <v>0</v>
@@ -30784,10 +31422,14 @@
         <v>3</v>
       </c>
       <c r="J282" t="n">
-        <v>10</v>
-      </c>
-      <c r="K282" t="inlineStr"/>
-      <c r="L282" t="inlineStr"/>
+        <v>16</v>
+      </c>
+      <c r="K282" t="n">
+        <v>0</v>
+      </c>
+      <c r="L282" t="n">
+        <v>100</v>
+      </c>
       <c r="M282" t="inlineStr"/>
       <c r="N282" t="n">
         <v>0</v>
@@ -30863,7 +31505,7 @@
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>ES button timed (3sec) configuration</t>
+          <t>ES button timed 3sec configuration</t>
         </is>
       </c>
       <c r="E283" t="inlineStr">
@@ -30888,10 +31530,14 @@
         <v>3</v>
       </c>
       <c r="J283" t="n">
-        <v>10</v>
-      </c>
-      <c r="K283" t="inlineStr"/>
-      <c r="L283" t="inlineStr"/>
+        <v>16</v>
+      </c>
+      <c r="K283" t="n">
+        <v>0</v>
+      </c>
+      <c r="L283" t="n">
+        <v>100</v>
+      </c>
       <c r="M283" t="inlineStr"/>
       <c r="N283" t="n">
         <v>0</v>
@@ -30992,10 +31638,14 @@
         <v>3</v>
       </c>
       <c r="J284" t="n">
-        <v>10</v>
-      </c>
-      <c r="K284" t="inlineStr"/>
-      <c r="L284" t="inlineStr"/>
+        <v>16</v>
+      </c>
+      <c r="K284" t="n">
+        <v>0</v>
+      </c>
+      <c r="L284" t="n">
+        <v>100</v>
+      </c>
       <c r="M284" t="inlineStr"/>
       <c r="N284" t="n">
         <v>0</v>
@@ -31096,10 +31746,14 @@
         <v>3</v>
       </c>
       <c r="J285" t="n">
-        <v>10</v>
-      </c>
-      <c r="K285" t="inlineStr"/>
-      <c r="L285" t="inlineStr"/>
+        <v>16</v>
+      </c>
+      <c r="K285" t="n">
+        <v>0</v>
+      </c>
+      <c r="L285" t="n">
+        <v>100</v>
+      </c>
       <c r="M285" t="inlineStr"/>
       <c r="N285" t="n">
         <v>0</v>
@@ -31200,10 +31854,14 @@
         <v>3</v>
       </c>
       <c r="J286" t="n">
-        <v>10</v>
-      </c>
-      <c r="K286" t="inlineStr"/>
-      <c r="L286" t="inlineStr"/>
+        <v>16</v>
+      </c>
+      <c r="K286" t="n">
+        <v>0</v>
+      </c>
+      <c r="L286" t="n">
+        <v>100</v>
+      </c>
       <c r="M286" t="inlineStr"/>
       <c r="N286" t="n">
         <v>0</v>
@@ -31304,10 +31962,14 @@
         <v>3</v>
       </c>
       <c r="J287" t="n">
-        <v>10</v>
-      </c>
-      <c r="K287" t="inlineStr"/>
-      <c r="L287" t="inlineStr"/>
+        <v>16</v>
+      </c>
+      <c r="K287" t="n">
+        <v>0</v>
+      </c>
+      <c r="L287" t="n">
+        <v>100</v>
+      </c>
       <c r="M287" t="inlineStr"/>
       <c r="N287" t="n">
         <v>0</v>
@@ -31383,7 +32045,7 @@
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>Instantaneous compressor speed (RPM * 10)</t>
+          <t>Instantaneous compressor speed RPM 10</t>
         </is>
       </c>
       <c r="E288" t="inlineStr">
@@ -31408,10 +32070,14 @@
         <v>3</v>
       </c>
       <c r="J288" t="n">
-        <v>10</v>
-      </c>
-      <c r="K288" t="inlineStr"/>
-      <c r="L288" t="inlineStr"/>
+        <v>16</v>
+      </c>
+      <c r="K288" t="n">
+        <v>0</v>
+      </c>
+      <c r="L288" t="n">
+        <v>100</v>
+      </c>
       <c r="M288" t="inlineStr"/>
       <c r="N288" t="n">
         <v>0</v>
@@ -31487,7 +32153,7 @@
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>Real regulation Set Point (SET + HES + SETd)</t>
+          <t>Real regulation Set Point SET HES SETd</t>
         </is>
       </c>
       <c r="E289" t="inlineStr">
@@ -31512,10 +32178,14 @@
         <v>3</v>
       </c>
       <c r="J289" t="n">
-        <v>10</v>
-      </c>
-      <c r="K289" t="inlineStr"/>
-      <c r="L289" t="inlineStr"/>
+        <v>16</v>
+      </c>
+      <c r="K289" t="n">
+        <v>0</v>
+      </c>
+      <c r="L289" t="n">
+        <v>100</v>
+      </c>
       <c r="M289" t="inlineStr"/>
       <c r="N289" t="n">
         <v>0</v>
@@ -31616,10 +32286,14 @@
         <v>3</v>
       </c>
       <c r="J290" t="n">
-        <v>10</v>
-      </c>
-      <c r="K290" t="inlineStr"/>
-      <c r="L290" t="inlineStr"/>
+        <v>16</v>
+      </c>
+      <c r="K290" t="n">
+        <v>0</v>
+      </c>
+      <c r="L290" t="n">
+        <v>100</v>
+      </c>
       <c r="M290" t="inlineStr"/>
       <c r="N290" t="n">
         <v>0</v>
@@ -31720,10 +32394,14 @@
         <v>3</v>
       </c>
       <c r="J291" t="n">
-        <v>10</v>
-      </c>
-      <c r="K291" t="inlineStr"/>
-      <c r="L291" t="inlineStr"/>
+        <v>16</v>
+      </c>
+      <c r="K291" t="n">
+        <v>0</v>
+      </c>
+      <c r="L291" t="n">
+        <v>100</v>
+      </c>
       <c r="M291" t="inlineStr"/>
       <c r="N291" t="n">
         <v>0</v>
@@ -31824,10 +32502,14 @@
         <v>3</v>
       </c>
       <c r="J292" t="n">
-        <v>10</v>
-      </c>
-      <c r="K292" t="inlineStr"/>
-      <c r="L292" t="inlineStr"/>
+        <v>16</v>
+      </c>
+      <c r="K292" t="n">
+        <v>0</v>
+      </c>
+      <c r="L292" t="n">
+        <v>100</v>
+      </c>
       <c r="M292" t="inlineStr"/>
       <c r="N292" t="n">
         <v>0</v>
